--- a/ClassMaterials/Filesystem_2/activity_solution.xlsx
+++ b/ClassMaterials/Filesystem_2/activity_solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rosehulman-my.sharepoint.com/personal/hewner_rose-hulman_edu/Documents/repos/csse332/ClassMaterials/Filesystem_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\song3\csse332\ClassMaterials\Filesystem_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{E83CF978-B90F-440F-9ABF-5A7347BADD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64165CFD-D57C-4575-9BF7-C9139614104C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8867D95-093B-4AD0-A8D2-73968EBD4ABF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{620FC279-024F-4556-A749-912B5D19524E}"/>
   </bookViews>
@@ -416,7 +416,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>There is one inode block (block 0).  Each row in the block is an inode.  The columns are for file size, 1 direct block pointers, 1 indirect block pointer.</a:t>
+            <a:t>There is one inode block (block 2).  Each row in the block is an inode.  The columns are for file size, 1 direct block pointers, 1 indirect block pointer.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD43A2B0-E435-42A7-8EDB-ECAB180A7A8E}">
   <dimension ref="B16:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,15 +1164,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059CE426D428CEF499B332ADC3ADB3636" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3922a3f3cb3548e23cf5b5031cab4ee5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f5b6d61-0e5f-41fd-8596-a1256f5a83b0" xmlns:ns4="f0b9717a-2b57-40f9-a089-7ad30d640f15" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9cf6d5cf715fce04fbcc1ed59529bc6" ns3:_="" ns4:_="">
     <xsd:import namespace="5f5b6d61-0e5f-41fd-8596-a1256f5a83b0"/>
@@ -1383,6 +1374,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA38C357-CD14-4776-91B4-6AFCF2079A40}">
   <ds:schemaRefs>
@@ -1393,14 +1393,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0FA2C9-3DA1-4003-93E2-9B639DDCA406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3688641-441A-486E-B84F-C84A71D98984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1417,4 +1409,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B0FA2C9-3DA1-4003-93E2-9B639DDCA406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>